--- a/eda/uso_internet/pnadca/tabela_6794.xlsx
+++ b/eda/uso_internet/pnadca/tabela_6794.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazar\Master-Dissertation\eda\uso_internet\pnadc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazar\Master-Dissertation\eda\uso_internet\pnadca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269FF38B-D414-4216-BEE8-77B7EDDE04F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B11230-EB1D-46AF-8DA0-2B6196CB467F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>2016</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>2023</t>
-  </si>
-  <si>
-    <t>Brasil</t>
   </si>
   <si>
     <t>Norte</t>
@@ -462,9 +459,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -474,7 +473,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -503,25 +502,25 @@
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>150113</v>
+        <v>11571</v>
       </c>
       <c r="C2" s="3">
-        <v>152497</v>
+        <v>11941</v>
       </c>
       <c r="D2" s="3">
-        <v>154681</v>
+        <v>12239</v>
       </c>
       <c r="E2" s="3">
-        <v>156556</v>
+        <v>12480</v>
       </c>
       <c r="F2" s="3">
-        <v>160121</v>
+        <v>13011</v>
       </c>
       <c r="G2" s="3">
-        <v>161694</v>
+        <v>13170</v>
       </c>
       <c r="H2" s="3">
-        <v>163396</v>
+        <v>13418</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -529,25 +528,25 @@
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>11571</v>
+        <v>39714</v>
       </c>
       <c r="C3" s="3">
-        <v>11941</v>
+        <v>40243</v>
       </c>
       <c r="D3" s="3">
-        <v>12239</v>
+        <v>40742</v>
       </c>
       <c r="E3" s="3">
-        <v>12480</v>
+        <v>41274</v>
       </c>
       <c r="F3" s="3">
-        <v>13011</v>
+        <v>42100</v>
       </c>
       <c r="G3" s="3">
-        <v>13170</v>
+        <v>42571</v>
       </c>
       <c r="H3" s="3">
-        <v>13418</v>
+        <v>42951</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -555,25 +554,25 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>39714</v>
+        <v>65431</v>
       </c>
       <c r="C4" s="3">
-        <v>40243</v>
+        <v>66314</v>
       </c>
       <c r="D4" s="3">
-        <v>40742</v>
+        <v>67199</v>
       </c>
       <c r="E4" s="3">
-        <v>41274</v>
+        <v>67984</v>
       </c>
       <c r="F4" s="3">
-        <v>42100</v>
+        <v>69510</v>
       </c>
       <c r="G4" s="3">
-        <v>42571</v>
+        <v>69989</v>
       </c>
       <c r="H4" s="3">
-        <v>42951</v>
+        <v>70503</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -581,25 +580,25 @@
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>65431</v>
+        <v>22089</v>
       </c>
       <c r="C5" s="3">
-        <v>66314</v>
+        <v>22429</v>
       </c>
       <c r="D5" s="3">
-        <v>67199</v>
+        <v>22739</v>
       </c>
       <c r="E5" s="3">
-        <v>67984</v>
+        <v>22917</v>
       </c>
       <c r="F5" s="3">
-        <v>69510</v>
+        <v>23333</v>
       </c>
       <c r="G5" s="3">
-        <v>69989</v>
+        <v>23527</v>
       </c>
       <c r="H5" s="3">
-        <v>70503</v>
+        <v>23753</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -607,50 +606,24 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>22089</v>
+        <v>11311</v>
       </c>
       <c r="C6" s="3">
-        <v>22429</v>
+        <v>11566</v>
       </c>
       <c r="D6" s="3">
-        <v>22739</v>
+        <v>11760</v>
       </c>
       <c r="E6" s="3">
-        <v>22917</v>
+        <v>11901</v>
       </c>
       <c r="F6" s="3">
-        <v>23333</v>
+        <v>12166</v>
       </c>
       <c r="G6" s="3">
-        <v>23527</v>
+        <v>12439</v>
       </c>
       <c r="H6" s="3">
-        <v>23753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3">
-        <v>11311</v>
-      </c>
-      <c r="C7" s="3">
-        <v>11566</v>
-      </c>
-      <c r="D7" s="3">
-        <v>11760</v>
-      </c>
-      <c r="E7" s="3">
-        <v>11901</v>
-      </c>
-      <c r="F7" s="3">
-        <v>12166</v>
-      </c>
-      <c r="G7" s="3">
-        <v>12439</v>
-      </c>
-      <c r="H7" s="3">
         <v>12769</v>
       </c>
     </row>
@@ -672,12 +645,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
